--- a/df_log_20250117.xlsx
+++ b/df_log_20250117.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤정은책임\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B622B032-E5DC-46F5-A82B-7553CBD624E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="9429" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$211</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="qOaf471ZS3hvFPW+fNwAPvcFT1AeroxW4lM38tfF89Q="/>
@@ -2477,32 +2487,43 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2510,11 +2531,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -2528,42 +2555,44 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2753,25 +2782,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="11" width="8.71"/>
-    <col customWidth="1" min="12" max="12" width="12.57"/>
-    <col customWidth="1" min="13" max="26" width="8.71"/>
+    <col min="1" max="11" width="8.69140625" customWidth="1"/>
+    <col min="12" max="12" width="12.53515625" customWidth="1"/>
+    <col min="13" max="26" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="14.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2812,7 +2844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2" spans="1:13" ht="14.6" hidden="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -2835,7 +2867,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>20</v>
@@ -2844,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" hidden="1">
+    <row r="3" spans="1:13" ht="14.6" hidden="1">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -2867,7 +2899,7 @@
         <v>25</v>
       </c>
       <c r="K3" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>26</v>
@@ -2876,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4" spans="1:13" ht="14.6" hidden="1">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -2899,7 +2931,7 @@
         <v>31</v>
       </c>
       <c r="K4" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>32</v>
@@ -2908,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" hidden="1">
+    <row r="5" spans="1:13" ht="14.6" hidden="1">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -2931,7 +2963,7 @@
         <v>38</v>
       </c>
       <c r="K5" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>39</v>
@@ -2940,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" ht="14.6">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -2963,7 +2995,7 @@
         <v>19</v>
       </c>
       <c r="K6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>44</v>
@@ -2972,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" ht="14.6">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -2995,7 +3027,7 @@
         <v>49</v>
       </c>
       <c r="K7" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>44</v>
@@ -3004,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8" spans="1:13" ht="14.6" hidden="1">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
@@ -3027,7 +3059,7 @@
         <v>54</v>
       </c>
       <c r="K8" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>55</v>
@@ -3036,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9" spans="1:13" ht="14.6" hidden="1">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -3059,7 +3091,7 @@
         <v>49</v>
       </c>
       <c r="K9" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>59</v>
@@ -3068,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" ht="14.6">
       <c r="A10" s="2" t="s">
         <v>60</v>
       </c>
@@ -3094,7 +3126,7 @@
         <v>64</v>
       </c>
       <c r="K10" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>44</v>
@@ -3103,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11" spans="1:13" ht="14.6" hidden="1">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -3129,7 +3161,7 @@
         <v>69</v>
       </c>
       <c r="K11" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>70</v>
@@ -3138,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12" spans="1:13" ht="14.6" hidden="1">
       <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
@@ -3164,7 +3196,7 @@
         <v>74</v>
       </c>
       <c r="K12" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>75</v>
@@ -3173,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13" spans="1:13" ht="14.6" hidden="1">
       <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
@@ -3199,7 +3231,7 @@
         <v>74</v>
       </c>
       <c r="K13" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>80</v>
@@ -3208,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" ht="14.6">
       <c r="A14" s="2" t="s">
         <v>81</v>
       </c>
@@ -3231,7 +3263,7 @@
         <v>54</v>
       </c>
       <c r="K14" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>84</v>
@@ -3240,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" ht="14.6">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
@@ -3266,7 +3298,7 @@
         <v>64</v>
       </c>
       <c r="K15" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>44</v>
@@ -3275,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" ht="14.6">
       <c r="A16" s="2" t="s">
         <v>88</v>
       </c>
@@ -3301,7 +3333,7 @@
         <v>91</v>
       </c>
       <c r="K16" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>44</v>
@@ -3310,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" hidden="1">
+    <row r="17" spans="1:13" ht="14.6" hidden="1">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -3336,7 +3368,7 @@
         <v>54</v>
       </c>
       <c r="K17" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>39</v>
@@ -3345,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" ht="14.6">
       <c r="A18" s="2" t="s">
         <v>98</v>
       </c>
@@ -3371,7 +3403,7 @@
         <v>49</v>
       </c>
       <c r="K18" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>44</v>
@@ -3380,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" ht="14.6">
       <c r="A19" s="2" t="s">
         <v>103</v>
       </c>
@@ -3406,7 +3438,7 @@
         <v>49</v>
       </c>
       <c r="K19" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>44</v>
@@ -3415,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
         <v>107</v>
       </c>
@@ -3444,16 +3476,16 @@
         <v>49</v>
       </c>
       <c r="K20" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L20" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M20" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="15.75" hidden="1" customHeight="1">
+    <row r="21" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>111</v>
       </c>
@@ -3476,7 +3508,7 @@
         <v>49</v>
       </c>
       <c r="K21" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>115</v>
@@ -3485,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>116</v>
       </c>
@@ -3514,7 +3546,7 @@
         <v>49</v>
       </c>
       <c r="K22" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>44</v>
@@ -3523,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>122</v>
       </c>
@@ -3552,16 +3584,16 @@
         <v>49</v>
       </c>
       <c r="K23" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="L23" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M23" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>127</v>
       </c>
@@ -3587,7 +3619,7 @@
         <v>64</v>
       </c>
       <c r="K24" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>44</v>
@@ -3596,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>130</v>
       </c>
@@ -3625,7 +3657,7 @@
         <v>19</v>
       </c>
       <c r="K25" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>44</v>
@@ -3634,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>135</v>
       </c>
@@ -3660,7 +3692,7 @@
         <v>19</v>
       </c>
       <c r="K26" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>139</v>
@@ -3669,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>140</v>
       </c>
@@ -3692,7 +3724,7 @@
         <v>91</v>
       </c>
       <c r="K27" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>44</v>
@@ -3701,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>143</v>
       </c>
@@ -3727,7 +3759,7 @@
         <v>69</v>
       </c>
       <c r="K28" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>44</v>
@@ -3736,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>147</v>
       </c>
@@ -3762,7 +3794,7 @@
         <v>64</v>
       </c>
       <c r="K29" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>44</v>
@@ -3771,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>150</v>
       </c>
@@ -3797,7 +3829,7 @@
         <v>64</v>
       </c>
       <c r="K30" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>44</v>
@@ -3806,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>153</v>
       </c>
@@ -3832,7 +3864,7 @@
         <v>54</v>
       </c>
       <c r="K31" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>44</v>
@@ -3841,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>157</v>
       </c>
@@ -3867,7 +3899,7 @@
         <v>74</v>
       </c>
       <c r="K32" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>44</v>
@@ -3876,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>160</v>
       </c>
@@ -3902,7 +3934,7 @@
         <v>54</v>
       </c>
       <c r="K33" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>44</v>
@@ -3911,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>163</v>
       </c>
@@ -3934,7 +3966,7 @@
         <v>166</v>
       </c>
       <c r="K34" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>44</v>
@@ -3943,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>167</v>
       </c>
@@ -3969,7 +4001,7 @@
         <v>19</v>
       </c>
       <c r="K35" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>44</v>
@@ -3978,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>170</v>
       </c>
@@ -4004,7 +4036,7 @@
         <v>19</v>
       </c>
       <c r="K36" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>44</v>
@@ -4013,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>173</v>
       </c>
@@ -4042,7 +4074,7 @@
         <v>19</v>
       </c>
       <c r="K37" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>44</v>
@@ -4051,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>177</v>
       </c>
@@ -4080,7 +4112,7 @@
         <v>19</v>
       </c>
       <c r="K38" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>44</v>
@@ -4089,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:13" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>180</v>
       </c>
@@ -4118,7 +4150,7 @@
         <v>19</v>
       </c>
       <c r="K39" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>44</v>
@@ -4127,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>183</v>
       </c>
@@ -4156,7 +4188,7 @@
         <v>19</v>
       </c>
       <c r="K40" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>44</v>
@@ -4165,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15.75" hidden="1" customHeight="1">
+    <row r="41" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>186</v>
       </c>
@@ -4188,7 +4220,7 @@
         <v>19</v>
       </c>
       <c r="K41" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>190</v>
@@ -4197,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>191</v>
       </c>
@@ -4226,7 +4258,7 @@
         <v>19</v>
       </c>
       <c r="K42" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>44</v>
@@ -4235,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>195</v>
       </c>
@@ -4264,7 +4296,7 @@
         <v>200</v>
       </c>
       <c r="K43" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>44</v>
@@ -4273,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:13" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>201</v>
       </c>
@@ -4299,16 +4331,16 @@
         <v>19</v>
       </c>
       <c r="K44" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L44" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M44" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:13" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>205</v>
       </c>
@@ -4337,7 +4369,7 @@
         <v>200</v>
       </c>
       <c r="K45" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>44</v>
@@ -4346,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:13" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>208</v>
       </c>
@@ -4372,7 +4404,7 @@
         <v>211</v>
       </c>
       <c r="K46" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>44</v>
@@ -4381,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:13" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>212</v>
       </c>
@@ -4407,7 +4439,7 @@
         <v>19</v>
       </c>
       <c r="K47" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>44</v>
@@ -4416,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:13" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>215</v>
       </c>
@@ -4442,16 +4474,16 @@
         <v>19</v>
       </c>
       <c r="K48" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L48" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M48" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:13" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>218</v>
       </c>
@@ -4477,7 +4509,7 @@
         <v>49</v>
       </c>
       <c r="K49" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>44</v>
@@ -4486,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:13" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>221</v>
       </c>
@@ -4512,7 +4544,7 @@
         <v>19</v>
       </c>
       <c r="K50" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>44</v>
@@ -4521,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:13" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>224</v>
       </c>
@@ -4550,16 +4582,16 @@
         <v>19</v>
       </c>
       <c r="K51" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L51" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M51" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:13" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>228</v>
       </c>
@@ -4588,16 +4620,16 @@
         <v>19</v>
       </c>
       <c r="K52" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L52" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M52" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:13" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>233</v>
       </c>
@@ -4626,7 +4658,7 @@
         <v>19</v>
       </c>
       <c r="K53" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>44</v>
@@ -4635,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:13" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>236</v>
       </c>
@@ -4664,7 +4696,7 @@
         <v>19</v>
       </c>
       <c r="K54" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>44</v>
@@ -4673,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:13" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>239</v>
       </c>
@@ -4702,7 +4734,7 @@
         <v>19</v>
       </c>
       <c r="K55" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>44</v>
@@ -4711,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:13" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>242</v>
       </c>
@@ -4740,7 +4772,7 @@
         <v>54</v>
       </c>
       <c r="K56" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>44</v>
@@ -4749,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:13" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>246</v>
       </c>
@@ -4775,7 +4807,7 @@
         <v>19</v>
       </c>
       <c r="K57" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>44</v>
@@ -4784,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:13" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>249</v>
       </c>
@@ -4813,16 +4845,16 @@
         <v>254</v>
       </c>
       <c r="K58" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L58" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M58" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:13" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>255</v>
       </c>
@@ -4848,7 +4880,7 @@
         <v>49</v>
       </c>
       <c r="K59" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>44</v>
@@ -4857,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:13" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>258</v>
       </c>
@@ -4883,7 +4915,7 @@
         <v>19</v>
       </c>
       <c r="K60" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>84</v>
@@ -4892,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:13" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>261</v>
       </c>
@@ -4918,7 +4950,7 @@
         <v>19</v>
       </c>
       <c r="K61" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>44</v>
@@ -4927,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:13" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>264</v>
       </c>
@@ -4956,7 +4988,7 @@
         <v>200</v>
       </c>
       <c r="K62" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>44</v>
@@ -4965,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:13" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>267</v>
       </c>
@@ -4988,7 +5020,7 @@
         <v>19</v>
       </c>
       <c r="K63" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>44</v>
@@ -4997,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:13" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>271</v>
       </c>
@@ -5026,16 +5058,16 @@
         <v>54</v>
       </c>
       <c r="K64" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L64" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M64" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:13" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>276</v>
       </c>
@@ -5064,7 +5096,7 @@
         <v>200</v>
       </c>
       <c r="K65" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>44</v>
@@ -5073,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:13" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>279</v>
       </c>
@@ -5102,7 +5134,7 @@
         <v>284</v>
       </c>
       <c r="K66" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>44</v>
@@ -5111,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:13" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>285</v>
       </c>
@@ -5140,7 +5172,7 @@
         <v>200</v>
       </c>
       <c r="K67" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>44</v>
@@ -5149,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:13" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>288</v>
       </c>
@@ -5175,7 +5207,7 @@
         <v>49</v>
       </c>
       <c r="K68" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>44</v>
@@ -5184,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:13" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>291</v>
       </c>
@@ -5210,7 +5242,7 @@
         <v>31</v>
       </c>
       <c r="K69" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>44</v>
@@ -5219,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:13" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>294</v>
       </c>
@@ -5245,7 +5277,7 @@
         <v>19</v>
       </c>
       <c r="K70" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>44</v>
@@ -5254,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:13" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>297</v>
       </c>
@@ -5280,7 +5312,7 @@
         <v>31</v>
       </c>
       <c r="K71" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>44</v>
@@ -5289,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:13" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>300</v>
       </c>
@@ -5315,7 +5347,7 @@
         <v>69</v>
       </c>
       <c r="K72" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>44</v>
@@ -5324,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:13" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>303</v>
       </c>
@@ -5350,7 +5382,7 @@
         <v>31</v>
       </c>
       <c r="K73" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>44</v>
@@ -5359,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:13" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>306</v>
       </c>
@@ -5385,7 +5417,7 @@
         <v>211</v>
       </c>
       <c r="K74" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>44</v>
@@ -5394,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:13" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>309</v>
       </c>
@@ -5420,7 +5452,7 @@
         <v>19</v>
       </c>
       <c r="K75" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>44</v>
@@ -5429,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:13" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>312</v>
       </c>
@@ -5455,7 +5487,7 @@
         <v>317</v>
       </c>
       <c r="K76" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>44</v>
@@ -5464,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:13" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>318</v>
       </c>
@@ -5493,7 +5525,7 @@
         <v>91</v>
       </c>
       <c r="K77" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>44</v>
@@ -5502,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:13" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>322</v>
       </c>
@@ -5528,7 +5560,7 @@
         <v>49</v>
       </c>
       <c r="K78" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>44</v>
@@ -5537,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:13" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>325</v>
       </c>
@@ -5563,7 +5595,7 @@
         <v>329</v>
       </c>
       <c r="K79" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>44</v>
@@ -5572,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:13" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>330</v>
       </c>
@@ -5598,7 +5630,7 @@
         <v>49</v>
       </c>
       <c r="K80" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>44</v>
@@ -5607,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:13" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>333</v>
       </c>
@@ -5636,7 +5668,7 @@
         <v>19</v>
       </c>
       <c r="K81" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>44</v>
@@ -5645,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:13" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>337</v>
       </c>
@@ -5671,7 +5703,7 @@
         <v>54</v>
       </c>
       <c r="K82" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>44</v>
@@ -5680,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:13" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>341</v>
       </c>
@@ -5709,7 +5741,7 @@
         <v>345</v>
       </c>
       <c r="K83" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>44</v>
@@ -5718,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:13" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>346</v>
       </c>
@@ -5744,7 +5776,7 @@
         <v>49</v>
       </c>
       <c r="K84" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>44</v>
@@ -5753,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:13" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>349</v>
       </c>
@@ -5776,7 +5808,7 @@
         <v>91</v>
       </c>
       <c r="K85" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>44</v>
@@ -5785,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:13" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>352</v>
       </c>
@@ -5814,7 +5846,7 @@
         <v>345</v>
       </c>
       <c r="K86" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>44</v>
@@ -5823,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:13" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>356</v>
       </c>
@@ -5849,7 +5881,7 @@
         <v>64</v>
       </c>
       <c r="K87" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>44</v>
@@ -5858,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:13" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>359</v>
       </c>
@@ -5887,7 +5919,7 @@
         <v>91</v>
       </c>
       <c r="K88" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>44</v>
@@ -5896,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:13" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>362</v>
       </c>
@@ -5922,7 +5954,7 @@
         <v>19</v>
       </c>
       <c r="K89" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>44</v>
@@ -5931,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:13" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>365</v>
       </c>
@@ -5954,7 +5986,7 @@
         <v>19</v>
       </c>
       <c r="K90" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>44</v>
@@ -5963,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:13" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>369</v>
       </c>
@@ -5989,7 +6021,7 @@
         <v>49</v>
       </c>
       <c r="K91" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>44</v>
@@ -5998,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:13" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>372</v>
       </c>
@@ -6024,7 +6056,7 @@
         <v>69</v>
       </c>
       <c r="K92" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>44</v>
@@ -6033,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:13" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>375</v>
       </c>
@@ -6059,7 +6091,7 @@
         <v>19</v>
       </c>
       <c r="K93" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>44</v>
@@ -6068,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:13" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>378</v>
       </c>
@@ -6094,7 +6126,7 @@
         <v>19</v>
       </c>
       <c r="K94" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>44</v>
@@ -6103,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:13" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>381</v>
       </c>
@@ -6126,7 +6158,7 @@
         <v>19</v>
       </c>
       <c r="K95" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>44</v>
@@ -6135,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:13" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>384</v>
       </c>
@@ -6164,7 +6196,7 @@
         <v>19</v>
       </c>
       <c r="K96" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>44</v>
@@ -6173,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:13" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>389</v>
       </c>
@@ -6202,7 +6234,7 @@
         <v>19</v>
       </c>
       <c r="K97" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>44</v>
@@ -6211,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:13" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>393</v>
       </c>
@@ -6237,7 +6269,7 @@
         <v>19</v>
       </c>
       <c r="K98" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>44</v>
@@ -6246,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:13" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>397</v>
       </c>
@@ -6272,7 +6304,7 @@
         <v>19</v>
       </c>
       <c r="K99" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>44</v>
@@ -6281,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:13" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>400</v>
       </c>
@@ -6307,16 +6339,16 @@
         <v>49</v>
       </c>
       <c r="K100" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L100" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M100" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:13" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>403</v>
       </c>
@@ -6339,7 +6371,7 @@
         <v>406</v>
       </c>
       <c r="K101" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>44</v>
@@ -6348,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:13" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>407</v>
       </c>
@@ -6374,7 +6406,7 @@
         <v>49</v>
       </c>
       <c r="K102" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>44</v>
@@ -6383,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:13" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>410</v>
       </c>
@@ -6409,16 +6441,16 @@
         <v>49</v>
       </c>
       <c r="K103" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L103" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M103" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:13" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>413</v>
       </c>
@@ -6450,7 +6482,7 @@
         <v>418</v>
       </c>
       <c r="K104" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>44</v>
@@ -6459,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:13" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>419</v>
       </c>
@@ -6491,16 +6523,16 @@
         <v>424</v>
       </c>
       <c r="K105" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L105" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M105" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:13" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>425</v>
       </c>
@@ -6523,7 +6555,7 @@
         <v>19</v>
       </c>
       <c r="K106" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>44</v>
@@ -6532,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:13" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>428</v>
       </c>
@@ -6555,7 +6587,7 @@
         <v>19</v>
       </c>
       <c r="K107" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>44</v>
@@ -6564,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:13" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>431</v>
       </c>
@@ -6593,7 +6625,7 @@
         <v>19</v>
       </c>
       <c r="K108" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>44</v>
@@ -6602,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:13" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>435</v>
       </c>
@@ -6634,7 +6666,7 @@
         <v>438</v>
       </c>
       <c r="K109" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>44</v>
@@ -6643,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:13" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>439</v>
       </c>
@@ -6669,7 +6701,7 @@
         <v>54</v>
       </c>
       <c r="K110" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>44</v>
@@ -6678,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:13" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>442</v>
       </c>
@@ -6707,7 +6739,7 @@
         <v>19</v>
       </c>
       <c r="K111" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>44</v>
@@ -6716,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:13" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>447</v>
       </c>
@@ -6745,7 +6777,7 @@
         <v>19</v>
       </c>
       <c r="K112" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>44</v>
@@ -6754,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:13" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>450</v>
       </c>
@@ -6783,16 +6815,16 @@
         <v>19</v>
       </c>
       <c r="K113" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L113" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M113" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="15.75" hidden="1" customHeight="1">
+    <row r="114" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>454</v>
       </c>
@@ -6818,7 +6850,7 @@
         <v>19</v>
       </c>
       <c r="K114" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>457</v>
@@ -6827,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" ht="15.75" hidden="1" customHeight="1">
+    <row r="115" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>458</v>
       </c>
@@ -6850,7 +6882,7 @@
         <v>54</v>
       </c>
       <c r="K115" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>461</v>
@@ -6859,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:13" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>462</v>
       </c>
@@ -6888,7 +6920,7 @@
         <v>19</v>
       </c>
       <c r="K116" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>44</v>
@@ -6897,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:13" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>467</v>
       </c>
@@ -6920,7 +6952,7 @@
         <v>19</v>
       </c>
       <c r="K117" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>44</v>
@@ -6929,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:13" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>470</v>
       </c>
@@ -6952,7 +6984,7 @@
         <v>19</v>
       </c>
       <c r="K118" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>44</v>
@@ -6961,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:13" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>473</v>
       </c>
@@ -6990,7 +7022,7 @@
         <v>19</v>
       </c>
       <c r="K119" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>44</v>
@@ -6999,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:13" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>476</v>
       </c>
@@ -7028,7 +7060,7 @@
         <v>19</v>
       </c>
       <c r="K120" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>44</v>
@@ -7037,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:13" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>480</v>
       </c>
@@ -7066,7 +7098,7 @@
         <v>19</v>
       </c>
       <c r="K121" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>44</v>
@@ -7075,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:13" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>484</v>
       </c>
@@ -7101,7 +7133,7 @@
         <v>49</v>
       </c>
       <c r="K122" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>44</v>
@@ -7110,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:13" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>487</v>
       </c>
@@ -7136,16 +7168,16 @@
         <v>54</v>
       </c>
       <c r="K123" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L123" s="5">
-        <v>45673.0</v>
+        <v>45673</v>
       </c>
       <c r="M123" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:13" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>490</v>
       </c>
@@ -7177,16 +7209,16 @@
         <v>494</v>
       </c>
       <c r="K124" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L124" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M124" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:13" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>495</v>
       </c>
@@ -7215,16 +7247,16 @@
         <v>19</v>
       </c>
       <c r="K125" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L125" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M125" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:13" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>500</v>
       </c>
@@ -7253,16 +7285,16 @@
         <v>19</v>
       </c>
       <c r="K126" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L126" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M126" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:13" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>503</v>
       </c>
@@ -7288,7 +7320,7 @@
         <v>508</v>
       </c>
       <c r="K127" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>44</v>
@@ -7297,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:13" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>509</v>
       </c>
@@ -7326,16 +7358,16 @@
         <v>19</v>
       </c>
       <c r="K128" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L128" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M128" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:13" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>514</v>
       </c>
@@ -7361,7 +7393,7 @@
         <v>19</v>
       </c>
       <c r="K129" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>44</v>
@@ -7370,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:13" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>517</v>
       </c>
@@ -7393,7 +7425,7 @@
         <v>19</v>
       </c>
       <c r="K130" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>44</v>
@@ -7402,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:13" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>520</v>
       </c>
@@ -7431,7 +7463,7 @@
         <v>19</v>
       </c>
       <c r="K131" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>44</v>
@@ -7440,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:13" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>524</v>
       </c>
@@ -7469,16 +7501,16 @@
         <v>19</v>
       </c>
       <c r="K132" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L132" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M132" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:13" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>528</v>
       </c>
@@ -7507,7 +7539,7 @@
         <v>19</v>
       </c>
       <c r="K133" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>44</v>
@@ -7516,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:13" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>531</v>
       </c>
@@ -7545,7 +7577,7 @@
         <v>19</v>
       </c>
       <c r="K134" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>44</v>
@@ -7554,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:13" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>535</v>
       </c>
@@ -7583,7 +7615,7 @@
         <v>19</v>
       </c>
       <c r="K135" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>44</v>
@@ -7592,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:13" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>540</v>
       </c>
@@ -7618,7 +7650,7 @@
         <v>49</v>
       </c>
       <c r="K136" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>44</v>
@@ -7627,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:13" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>544</v>
       </c>
@@ -7653,7 +7685,7 @@
         <v>49</v>
       </c>
       <c r="K137" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>44</v>
@@ -7662,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:13" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>547</v>
       </c>
@@ -7688,7 +7720,7 @@
         <v>551</v>
       </c>
       <c r="K138" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>44</v>
@@ -7697,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:13" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>552</v>
       </c>
@@ -7723,7 +7755,7 @@
         <v>19</v>
       </c>
       <c r="K139" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>44</v>
@@ -7732,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:13" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>555</v>
       </c>
@@ -7758,7 +7790,7 @@
         <v>49</v>
       </c>
       <c r="K140" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>44</v>
@@ -7767,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:13" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>558</v>
       </c>
@@ -7796,7 +7828,7 @@
         <v>564</v>
       </c>
       <c r="K141" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>44</v>
@@ -7805,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:13" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>565</v>
       </c>
@@ -7828,7 +7860,7 @@
         <v>54</v>
       </c>
       <c r="K142" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>44</v>
@@ -7837,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:13" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>569</v>
       </c>
@@ -7863,16 +7895,16 @@
         <v>54</v>
       </c>
       <c r="K143" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L143" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M143" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:13" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>572</v>
       </c>
@@ -7901,7 +7933,7 @@
         <v>19</v>
       </c>
       <c r="K144" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>44</v>
@@ -7910,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:13" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>578</v>
       </c>
@@ -7936,7 +7968,7 @@
         <v>49</v>
       </c>
       <c r="K145" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>44</v>
@@ -7945,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:13" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>581</v>
       </c>
@@ -7971,7 +8003,7 @@
         <v>49</v>
       </c>
       <c r="K146" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>44</v>
@@ -7980,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:13" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>584</v>
       </c>
@@ -8006,7 +8038,7 @@
         <v>19</v>
       </c>
       <c r="K147" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>44</v>
@@ -8015,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:13" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>587</v>
       </c>
@@ -8041,7 +8073,7 @@
         <v>591</v>
       </c>
       <c r="K148" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>44</v>
@@ -8050,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:13" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>592</v>
       </c>
@@ -8076,7 +8108,7 @@
         <v>19</v>
       </c>
       <c r="K149" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L149" s="2" t="s">
         <v>44</v>
@@ -8085,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:13" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>595</v>
       </c>
@@ -8111,7 +8143,7 @@
         <v>54</v>
       </c>
       <c r="K150" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>44</v>
@@ -8120,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:13" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>599</v>
       </c>
@@ -8146,7 +8178,7 @@
         <v>19</v>
       </c>
       <c r="K151" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>44</v>
@@ -8155,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:13" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>602</v>
       </c>
@@ -8178,7 +8210,7 @@
         <v>19</v>
       </c>
       <c r="K152" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>44</v>
@@ -8187,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:13" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>605</v>
       </c>
@@ -8213,7 +8245,7 @@
         <v>54</v>
       </c>
       <c r="K153" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>44</v>
@@ -8222,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:13" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>608</v>
       </c>
@@ -8251,7 +8283,7 @@
         <v>614</v>
       </c>
       <c r="K154" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>44</v>
@@ -8260,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:13" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>615</v>
       </c>
@@ -8286,7 +8318,7 @@
         <v>54</v>
       </c>
       <c r="K155" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>44</v>
@@ -8295,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:13" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>618</v>
       </c>
@@ -8324,7 +8356,7 @@
         <v>19</v>
       </c>
       <c r="K156" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>44</v>
@@ -8333,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:13" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>621</v>
       </c>
@@ -8359,16 +8391,16 @@
         <v>625</v>
       </c>
       <c r="K157" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="L157" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M157" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:13" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>626</v>
       </c>
@@ -8394,7 +8426,7 @@
         <v>54</v>
       </c>
       <c r="K158" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L158" s="2" t="s">
         <v>44</v>
@@ -8403,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:13" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>630</v>
       </c>
@@ -8432,7 +8464,7 @@
         <v>200</v>
       </c>
       <c r="K159" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>44</v>
@@ -8441,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:13" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>633</v>
       </c>
@@ -8470,7 +8502,7 @@
         <v>200</v>
       </c>
       <c r="K160" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L160" s="2" t="s">
         <v>44</v>
@@ -8479,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:13" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>636</v>
       </c>
@@ -8508,7 +8540,7 @@
         <v>54</v>
       </c>
       <c r="K161" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>44</v>
@@ -8517,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:13" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>639</v>
       </c>
@@ -8543,7 +8575,7 @@
         <v>19</v>
       </c>
       <c r="K162" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>44</v>
@@ -8552,7 +8584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:13" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>642</v>
       </c>
@@ -8581,16 +8613,16 @@
         <v>200</v>
       </c>
       <c r="K163" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L163" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M163" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:13" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>647</v>
       </c>
@@ -8616,7 +8648,7 @@
         <v>54</v>
       </c>
       <c r="K164" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="L164" s="2" t="s">
         <v>44</v>
@@ -8625,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:13" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>651</v>
       </c>
@@ -8654,16 +8686,16 @@
         <v>54</v>
       </c>
       <c r="K165" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L165" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M165" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:13" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
         <v>654</v>
       </c>
@@ -8692,7 +8724,7 @@
         <v>200</v>
       </c>
       <c r="K166" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L166" s="2" t="s">
         <v>44</v>
@@ -8701,7 +8733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:13" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
         <v>657</v>
       </c>
@@ -8727,7 +8759,7 @@
         <v>19</v>
       </c>
       <c r="K167" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L167" s="2" t="s">
         <v>44</v>
@@ -8736,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:13" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>661</v>
       </c>
@@ -8762,7 +8794,7 @@
         <v>54</v>
       </c>
       <c r="K168" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L168" s="2" t="s">
         <v>44</v>
@@ -8771,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:13" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
         <v>665</v>
       </c>
@@ -8797,16 +8829,16 @@
         <v>19</v>
       </c>
       <c r="K169" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L169" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M169" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:13" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
         <v>669</v>
       </c>
@@ -8832,16 +8864,16 @@
         <v>200</v>
       </c>
       <c r="K170" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L170" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M170" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:13" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>673</v>
       </c>
@@ -8867,7 +8899,7 @@
         <v>677</v>
       </c>
       <c r="K171" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L171" s="2" t="s">
         <v>44</v>
@@ -8876,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:13" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>678</v>
       </c>
@@ -8902,16 +8934,16 @@
         <v>49</v>
       </c>
       <c r="K172" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L172" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M172" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:13" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
         <v>681</v>
       </c>
@@ -8937,7 +8969,7 @@
         <v>19</v>
       </c>
       <c r="K173" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L173" s="2" t="s">
         <v>44</v>
@@ -8946,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:13" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
         <v>684</v>
       </c>
@@ -8972,16 +9004,16 @@
         <v>689</v>
       </c>
       <c r="K174" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L174" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M174" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:13" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
         <v>690</v>
       </c>
@@ -9007,7 +9039,7 @@
         <v>54</v>
       </c>
       <c r="K175" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L175" s="2" t="s">
         <v>44</v>
@@ -9016,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:13" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
         <v>693</v>
       </c>
@@ -9045,16 +9077,16 @@
         <v>200</v>
       </c>
       <c r="K176" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L176" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M176" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:13" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>696</v>
       </c>
@@ -9080,16 +9112,16 @@
         <v>701</v>
       </c>
       <c r="K177" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L177" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M177" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:13" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>702</v>
       </c>
@@ -9118,16 +9150,16 @@
         <v>200</v>
       </c>
       <c r="K178" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L178" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="M178" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:13" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>705</v>
       </c>
@@ -9153,7 +9185,7 @@
         <v>19</v>
       </c>
       <c r="K179" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L179" s="2" t="s">
         <v>44</v>
@@ -9162,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" ht="15.75" hidden="1" customHeight="1">
+    <row r="180" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>708</v>
       </c>
@@ -9188,7 +9220,7 @@
         <v>49</v>
       </c>
       <c r="K180" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L180" s="2" t="s">
         <v>80</v>
@@ -9197,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" ht="15.75" hidden="1" customHeight="1">
+    <row r="181" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A181" s="2" t="s">
         <v>711</v>
       </c>
@@ -9220,7 +9252,7 @@
         <v>49</v>
       </c>
       <c r="K181" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L181" s="2" t="s">
         <v>26</v>
@@ -9229,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:13" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
         <v>714</v>
       </c>
@@ -9252,7 +9284,7 @@
         <v>49</v>
       </c>
       <c r="K182" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L182" s="2" t="s">
         <v>44</v>
@@ -9261,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" ht="15.75" hidden="1" customHeight="1">
+    <row r="183" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A183" s="2" t="s">
         <v>717</v>
       </c>
@@ -9284,7 +9316,7 @@
         <v>49</v>
       </c>
       <c r="K183" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L183" s="2" t="s">
         <v>26</v>
@@ -9293,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:13" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
         <v>720</v>
       </c>
@@ -9316,7 +9348,7 @@
         <v>49</v>
       </c>
       <c r="K184" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L184" s="2" t="s">
         <v>44</v>
@@ -9325,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:13" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
         <v>723</v>
       </c>
@@ -9351,7 +9383,7 @@
         <v>19</v>
       </c>
       <c r="K185" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L185" s="2" t="s">
         <v>44</v>
@@ -9360,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:13" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
         <v>727</v>
       </c>
@@ -9386,7 +9418,7 @@
         <v>317</v>
       </c>
       <c r="K186" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L186" s="2" t="s">
         <v>44</v>
@@ -9395,7 +9427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:13" ht="15.75" customHeight="1">
       <c r="A187" s="2" t="s">
         <v>731</v>
       </c>
@@ -9421,7 +9453,7 @@
         <v>19</v>
       </c>
       <c r="K187" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L187" s="2" t="s">
         <v>44</v>
@@ -9430,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:13" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
         <v>734</v>
       </c>
@@ -9456,7 +9488,7 @@
         <v>737</v>
       </c>
       <c r="K188" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L188" s="2" t="s">
         <v>44</v>
@@ -9465,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:13" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
         <v>738</v>
       </c>
@@ -9494,7 +9526,7 @@
         <v>200</v>
       </c>
       <c r="K189" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L189" s="2" t="s">
         <v>44</v>
@@ -9503,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:13" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
         <v>741</v>
       </c>
@@ -9529,7 +9561,7 @@
         <v>317</v>
       </c>
       <c r="K190" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L190" s="2" t="s">
         <v>44</v>
@@ -9538,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:13" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>744</v>
       </c>
@@ -9564,7 +9596,7 @@
         <v>317</v>
       </c>
       <c r="K191" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L191" s="2" t="s">
         <v>44</v>
@@ -9573,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" ht="15.75" hidden="1" customHeight="1">
+    <row r="192" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>747</v>
       </c>
@@ -9596,7 +9628,7 @@
         <v>317</v>
       </c>
       <c r="K192" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L192" s="2" t="s">
         <v>750</v>
@@ -9605,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:13" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>751</v>
       </c>
@@ -9631,7 +9663,7 @@
         <v>19</v>
       </c>
       <c r="K193" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="L193" s="2" t="s">
         <v>754</v>
@@ -9640,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" ht="15.75" hidden="1" customHeight="1">
+    <row r="194" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>755</v>
       </c>
@@ -9663,7 +9695,7 @@
         <v>317</v>
       </c>
       <c r="K194" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L194" s="2" t="s">
         <v>115</v>
@@ -9672,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:13" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
         <v>758</v>
       </c>
@@ -9698,7 +9730,7 @@
         <v>49</v>
       </c>
       <c r="K195" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L195" s="2" t="s">
         <v>44</v>
@@ -9707,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" ht="15.75" hidden="1" customHeight="1">
+    <row r="196" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>762</v>
       </c>
@@ -9733,7 +9765,7 @@
         <v>317</v>
       </c>
       <c r="K196" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L196" s="2" t="s">
         <v>55</v>
@@ -9742,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:13" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
         <v>765</v>
       </c>
@@ -9768,7 +9800,7 @@
         <v>768</v>
       </c>
       <c r="K197" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L197" s="2" t="s">
         <v>44</v>
@@ -9777,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" ht="15.75" hidden="1" customHeight="1">
+    <row r="198" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>769</v>
       </c>
@@ -9800,7 +9832,7 @@
         <v>317</v>
       </c>
       <c r="K198" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L198" s="2" t="s">
         <v>750</v>
@@ -9809,7 +9841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:13" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
         <v>772</v>
       </c>
@@ -9835,7 +9867,7 @@
         <v>775</v>
       </c>
       <c r="K199" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L199" s="2" t="s">
         <v>44</v>
@@ -9844,7 +9876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" ht="15.75" hidden="1" customHeight="1">
+    <row r="200" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A200" s="2" t="s">
         <v>776</v>
       </c>
@@ -9867,7 +9899,7 @@
         <v>317</v>
       </c>
       <c r="K200" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L200" s="2" t="s">
         <v>779</v>
@@ -9876,7 +9908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:13" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
         <v>780</v>
       </c>
@@ -9902,7 +9934,7 @@
         <v>775</v>
       </c>
       <c r="K201" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L201" s="2" t="s">
         <v>44</v>
@@ -9911,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" ht="15.75" hidden="1" customHeight="1">
+    <row r="202" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A202" s="2" t="s">
         <v>783</v>
       </c>
@@ -9934,7 +9966,7 @@
         <v>317</v>
       </c>
       <c r="K202" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L202" s="2" t="s">
         <v>786</v>
@@ -9943,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:13" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
         <v>787</v>
       </c>
@@ -9972,7 +10004,7 @@
         <v>19</v>
       </c>
       <c r="K203" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L203" s="2" t="s">
         <v>44</v>
@@ -9981,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" ht="15.75" hidden="1" customHeight="1">
+    <row r="204" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A204" s="2" t="s">
         <v>792</v>
       </c>
@@ -10007,7 +10039,7 @@
         <v>317</v>
       </c>
       <c r="K204" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L204" s="2" t="s">
         <v>55</v>
@@ -10016,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" ht="15.75" hidden="1" customHeight="1">
+    <row r="205" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A205" s="2" t="s">
         <v>795</v>
       </c>
@@ -10039,7 +10071,7 @@
         <v>775</v>
       </c>
       <c r="K205" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L205" s="2" t="s">
         <v>798</v>
@@ -10048,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" ht="15.75" hidden="1" customHeight="1">
+    <row r="206" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A206" s="2" t="s">
         <v>799</v>
       </c>
@@ -10071,7 +10103,7 @@
         <v>317</v>
       </c>
       <c r="K206" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L206" s="2" t="s">
         <v>115</v>
@@ -10080,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:13" ht="15.75" customHeight="1">
       <c r="A207" s="2" t="s">
         <v>802</v>
       </c>
@@ -10106,7 +10138,7 @@
         <v>19</v>
       </c>
       <c r="K207" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L207" s="2" t="s">
         <v>44</v>
@@ -10115,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:13" ht="15.75" customHeight="1">
       <c r="A208" s="2" t="s">
         <v>805</v>
       </c>
@@ -10138,7 +10170,7 @@
         <v>317</v>
       </c>
       <c r="K208" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L208" s="2" t="s">
         <v>44</v>
@@ -10147,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:13" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>808</v>
       </c>
@@ -10173,7 +10205,7 @@
         <v>317</v>
       </c>
       <c r="K209" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L209" s="2" t="s">
         <v>44</v>
@@ -10182,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" ht="15.75" hidden="1" customHeight="1">
+    <row r="210" spans="1:13" ht="15.75" hidden="1" customHeight="1">
       <c r="A210" s="2" t="s">
         <v>812</v>
       </c>
@@ -10205,7 +10237,7 @@
         <v>317</v>
       </c>
       <c r="K210" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L210" s="2" t="s">
         <v>26</v>
@@ -10214,7 +10246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:13" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
         <v>815</v>
       </c>
@@ -10237,7 +10269,7 @@
         <v>54</v>
       </c>
       <c r="K211" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L211" s="2" t="s">
         <v>44</v>
@@ -10246,19 +10278,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="212" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="213" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="214" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="215" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="216" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="217" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="218" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="219" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="220" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -11036,19 +11068,18 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$M$211">
+  <autoFilter ref="A1:M211" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="11">
       <filters>
+        <filter val="2025-01-16"/>
         <filter val="2025-01-17"/>
-        <filter val="2025-01-16"/>
         <filter val="2025-01-17-"/>
         <filter val="2025-01-17 18:00:00"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>